--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ucn-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01553</v>
+        <v>0.1856783333333334</v>
       </c>
       <c r="N2">
-        <v>0.04659</v>
+        <v>0.5570350000000001</v>
       </c>
       <c r="O2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="P2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="Q2">
-        <v>0.00174344439</v>
+        <v>0.020844806735</v>
       </c>
       <c r="R2">
-        <v>0.01569099951</v>
+        <v>0.187603260615</v>
       </c>
       <c r="S2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
       <c r="T2">
-        <v>0.01249712651925654</v>
+        <v>0.1687333435516107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +623,10 @@
         <v>0.135017</v>
       </c>
       <c r="O3">
-        <v>0.03621645269908694</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="P3">
-        <v>0.03621645269908695</v>
+        <v>0.04089845314263523</v>
       </c>
       <c r="Q3">
         <v>0.005052471157</v>
@@ -632,10 +635,10 @@
         <v>0.045472240413</v>
       </c>
       <c r="S3">
-        <v>0.03621645269908694</v>
+        <v>0.04089845314263524</v>
       </c>
       <c r="T3">
-        <v>0.03621645269908695</v>
+        <v>0.04089845314263523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.18215</v>
+        <v>0.8184133333333333</v>
       </c>
       <c r="N4">
-        <v>3.54645</v>
+        <v>2.45524</v>
       </c>
       <c r="O4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="P4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885394</v>
       </c>
       <c r="Q4">
-        <v>0.13271170545</v>
+        <v>0.09187753604</v>
       </c>
       <c r="R4">
-        <v>1.19440534905</v>
+        <v>0.8268978243599999</v>
       </c>
       <c r="S4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885396</v>
       </c>
       <c r="T4">
-        <v>0.9512864207816565</v>
+        <v>0.7437249982885394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.112263</v>
+      </c>
+      <c r="H5">
+        <v>0.336789</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05132733333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.153982</v>
+      </c>
+      <c r="O5">
+        <v>0.04664320501721457</v>
+      </c>
+      <c r="P5">
+        <v>0.04664320501721456</v>
+      </c>
+      <c r="Q5">
+        <v>0.005762160422000001</v>
+      </c>
+      <c r="R5">
+        <v>0.051859443798</v>
+      </c>
+      <c r="S5">
+        <v>0.04664320501721457</v>
+      </c>
+      <c r="T5">
+        <v>0.04664320501721456</v>
       </c>
     </row>
   </sheetData>
